--- a/Salle/Discurso/Intermedias/data_heatmap_discursos.xlsx
+++ b/Salle/Discurso/Intermedias/data_heatmap_discursos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">Anio</t>
   </si>
@@ -56,60 +56,63 @@
     <t xml:space="preserve">clepto</t>
   </si>
   <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">masonería</t>
+  </si>
+  <si>
     <t xml:space="preserve">2019</t>
   </si>
   <si>
-    <t xml:space="preserve">casta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">masonería</t>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">davos</t>
   </si>
   <si>
     <t xml:space="preserve">masón</t>
   </si>
   <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">davos</t>
-  </si>
-  <si>
     <t xml:space="preserve">vacunas</t>
   </si>
   <si>
     <t xml:space="preserve">Pandemia</t>
   </si>
   <si>
+    <t xml:space="preserve">pandemia</t>
+  </si>
+  <si>
     <t xml:space="preserve">covid</t>
   </si>
   <si>
-    <t xml:space="preserve">pandemia</t>
+    <t xml:space="preserve">vacunó</t>
   </si>
   <si>
     <t xml:space="preserve">vacunación</t>
   </si>
   <si>
+    <t xml:space="preserve">vacuna</t>
+  </si>
+  <si>
     <t xml:space="preserve">plandemia</t>
   </si>
   <si>
-    <t xml:space="preserve">vacunó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vacuna</t>
+    <t xml:space="preserve">vacunados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vacunado</t>
   </si>
   <si>
     <t xml:space="preserve">vacunarse</t>
   </si>
   <si>
-    <t xml:space="preserve">vacun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vacunado</t>
-  </si>
-  <si>
     <t xml:space="preserve">agua</t>
   </si>
   <si>
@@ -131,37 +134,55 @@
     <t xml:space="preserve">climático</t>
   </si>
   <si>
-    <t xml:space="preserve">fiscal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema Judicial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">justicia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abogado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abogados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiscalía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiscales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constitucional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrupción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constitución</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corruptos</t>
+    <t xml:space="preserve">homosexuales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">género</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homosexualidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feministas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feminismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homosexual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homosexualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feminista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vázquez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tabaré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capitalismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capitalista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">libertad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capitalistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comunismo</t>
   </si>
 </sst>
 </file>
@@ -521,10 +542,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>127587</v>
+        <v>103107</v>
       </c>
       <c r="E2" t="n">
         <v>0.1</v>
@@ -541,13 +562,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>127587</v>
+        <v>103107</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -564,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>127587</v>
+        <v>103107</v>
       </c>
       <c r="E4" t="n">
         <v>0.1</v>
@@ -584,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>127587</v>
+        <v>103107</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -604,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>127587</v>
+        <v>103107</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -624,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>127587</v>
+        <v>103107</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -641,13 +662,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>72570</v>
+        <v>108029</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -661,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>72570</v>
+        <v>108029</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -681,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>72570</v>
+        <v>108029</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -701,10 +722,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>72570</v>
+        <v>108029</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -718,13 +739,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>72570</v>
+        <v>108029</v>
       </c>
       <c r="E12" t="n">
         <v>0.1</v>
@@ -741,13 +762,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>72570</v>
+        <v>108029</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -761,13 +782,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>72570</v>
+        <v>108029</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -775,19 +796,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>72570</v>
+        <v>31409</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -795,19 +816,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>35813</v>
+        <v>31409</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -815,19 +836,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>35813</v>
+        <v>31409</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -835,16 +856,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>35813</v>
+        <v>31409</v>
       </c>
       <c r="E18" t="n">
         <v>0.1</v>
@@ -855,16 +876,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>35813</v>
+        <v>31409</v>
       </c>
       <c r="E19" t="n">
         <v>0.1</v>
@@ -875,19 +896,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>35813</v>
+        <v>31409</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -898,16 +919,16 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>35813</v>
+        <v>24191</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -915,19 +936,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>608268</v>
+        <v>24191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -935,19 +956,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>608268</v>
+        <v>24191</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -955,19 +976,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C24" t="n">
-        <v>287</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>608268</v>
+        <v>24191</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -975,16 +996,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>608268</v>
+        <v>24191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -995,19 +1016,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>608268</v>
+        <v>24191</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -1018,16 +1039,16 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C27" t="n">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>608268</v>
+        <v>289084</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -1038,13 +1059,13 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="D28" t="n">
-        <v>608268</v>
+        <v>289084</v>
       </c>
       <c r="E28" t="n">
         <v>0.2</v>
@@ -1058,16 +1079,16 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C29" t="n">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D29" t="n">
-        <v>608268</v>
+        <v>289084</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -1078,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C30" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D30" t="n">
-        <v>608268</v>
+        <v>289084</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -1098,16 +1119,16 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D31" t="n">
-        <v>608268</v>
+        <v>289084</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -1115,62 +1136,62 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D32" t="n">
-        <v>127587</v>
+        <v>289084</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D33" t="n">
-        <v>72570</v>
+        <v>289084</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C34" t="n">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D34" t="n">
-        <v>35813</v>
+        <v>289084</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1178,19 +1199,19 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
-        <v>608268</v>
+        <v>289084</v>
       </c>
       <c r="E35" t="n">
         <v>0.1</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1198,59 +1219,59 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D36" t="n">
-        <v>608268</v>
+        <v>289084</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>608268</v>
+        <v>103107</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>608268</v>
+        <v>24191</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -1258,19 +1279,19 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C39" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>608268</v>
+        <v>289084</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
@@ -1278,19 +1299,19 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D40" t="n">
-        <v>608268</v>
+        <v>289084</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
@@ -1298,19 +1319,19 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C41" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D41" t="n">
-        <v>608268</v>
+        <v>289084</v>
       </c>
       <c r="E41" t="n">
         <v>0.1</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -1318,19 +1339,19 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>608268</v>
+        <v>289084</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -1338,19 +1359,19 @@
         <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D43" t="n">
-        <v>608268</v>
+        <v>289084</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
@@ -1358,99 +1379,99 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D44" t="n">
-        <v>608268</v>
+        <v>289084</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C45" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>127587</v>
+        <v>289084</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>127587</v>
+        <v>289084</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>127587</v>
+        <v>289084</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>127587</v>
+        <v>289084</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -1458,99 +1479,99 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D49" t="n">
-        <v>127587</v>
+        <v>103107</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C50" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>72570</v>
+        <v>103107</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>72570</v>
+        <v>103107</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C52" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>72570</v>
+        <v>103107</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C53" t="n">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>72570</v>
+        <v>103107</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
@@ -1558,359 +1579,359 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>72570</v>
+        <v>108029</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>35813</v>
+        <v>108029</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>108029</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
         <v>34</v>
-      </c>
-      <c r="C56" t="n">
-        <v>12</v>
-      </c>
-      <c r="D56" t="n">
-        <v>35813</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F56" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D57" t="n">
-        <v>35813</v>
+        <v>108029</v>
       </c>
       <c r="E57" t="n">
         <v>0.1</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C58" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D58" t="n">
-        <v>35813</v>
+        <v>31409</v>
       </c>
       <c r="E58" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C59" t="n">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>608268</v>
+        <v>31409</v>
       </c>
       <c r="E59" t="n">
         <v>0.2</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" t="n">
+        <v>38</v>
+      </c>
+      <c r="D60" t="n">
+        <v>31409</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F60" t="s">
         <v>34</v>
-      </c>
-      <c r="C60" t="n">
-        <v>73</v>
-      </c>
-      <c r="D60" t="n">
-        <v>608268</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C61" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>608268</v>
+        <v>31409</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C62" t="n">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="D62" t="n">
-        <v>608268</v>
+        <v>24191</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C63" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D63" t="n">
-        <v>608268</v>
+        <v>24191</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C64" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>608268</v>
+        <v>24191</v>
       </c>
       <c r="E64" t="n">
         <v>0.1</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C65" t="n">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="D65" t="n">
-        <v>127587</v>
+        <v>24191</v>
       </c>
       <c r="E65" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C66" t="n">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="D66" t="n">
-        <v>127587</v>
+        <v>289084</v>
       </c>
       <c r="E66" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C67" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D67" t="n">
-        <v>127587</v>
+        <v>289084</v>
       </c>
       <c r="E67" t="n">
         <v>0.2</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C68" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D68" t="n">
-        <v>127587</v>
+        <v>289084</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C69" t="n">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="D69" t="n">
-        <v>127587</v>
+        <v>289084</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C70" t="n">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
-        <v>127587</v>
+        <v>289084</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C71" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>127587</v>
+        <v>289084</v>
       </c>
       <c r="E71" t="n">
         <v>0.1</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
@@ -1918,639 +1939,959 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C72" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>127587</v>
+        <v>103107</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C73" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>127587</v>
+        <v>31409</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C74" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D74" t="n">
-        <v>127587</v>
+        <v>31409</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C75" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>72570</v>
+        <v>31409</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>31409</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
         <v>41</v>
-      </c>
-      <c r="C76" t="n">
-        <v>44</v>
-      </c>
-      <c r="D76" t="n">
-        <v>72570</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F76" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C77" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>72570</v>
+        <v>31409</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C78" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>72570</v>
+        <v>31409</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C79" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>72570</v>
+        <v>24191</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B80" t="s">
         <v>45</v>
       </c>
       <c r="C80" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>72570</v>
+        <v>24191</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s">
         <v>46</v>
       </c>
       <c r="C81" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>72570</v>
+        <v>24191</v>
       </c>
       <c r="E81" t="n">
         <v>0.2</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C82" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>72570</v>
+        <v>289084</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C83" t="n">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D83" t="n">
-        <v>72570</v>
+        <v>289084</v>
       </c>
       <c r="E83" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C84" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>72570</v>
+        <v>289084</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C85" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D85" t="n">
-        <v>35813</v>
+        <v>289084</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4</v>
+      </c>
+      <c r="D86" t="n">
+        <v>289084</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
         <v>41</v>
-      </c>
-      <c r="C86" t="n">
-        <v>11</v>
-      </c>
-      <c r="D86" t="n">
-        <v>35813</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F86" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C87" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D87" t="n">
-        <v>35813</v>
+        <v>289084</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>35813</v>
+        <v>289084</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>289084</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
         <v>41</v>
-      </c>
-      <c r="D89" t="n">
-        <v>35813</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F89" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C90" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D90" t="n">
-        <v>35813</v>
+        <v>103107</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D91" t="n">
-        <v>35813</v>
+        <v>103107</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C92" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>35813</v>
+        <v>103107</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C93" t="n">
         <v>28</v>
       </c>
       <c r="D93" t="n">
-        <v>35813</v>
+        <v>103107</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C94" t="n">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="D94" t="n">
-        <v>608268</v>
+        <v>103107</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C95" t="n">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>608268</v>
+        <v>103107</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C96" t="n">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>608268</v>
+        <v>103107</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C97" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="D97" t="n">
-        <v>608268</v>
+        <v>108029</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C98" t="n">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="D98" t="n">
-        <v>608268</v>
+        <v>108029</v>
       </c>
       <c r="E98" t="n">
         <v>0.3</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C99" t="n">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>608268</v>
+        <v>108029</v>
       </c>
       <c r="E99" t="n">
         <v>0.1</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C100" t="n">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="D100" t="n">
-        <v>608268</v>
+        <v>108029</v>
       </c>
       <c r="E100" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C101" t="n">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="D101" t="n">
-        <v>608268</v>
+        <v>108029</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C102" t="n">
-        <v>293</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
-        <v>608268</v>
+        <v>108029</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B103" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103" t="n">
+        <v>4</v>
+      </c>
+      <c r="D103" t="n">
+        <v>108029</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" t="s">
         <v>49</v>
       </c>
-      <c r="C103" t="n">
-        <v>31</v>
-      </c>
-      <c r="D103" t="n">
-        <v>608268</v>
-      </c>
-      <c r="E103" t="n">
+      <c r="C104" t="n">
+        <v>55</v>
+      </c>
+      <c r="D104" t="n">
+        <v>31409</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105" t="n">
+        <v>14</v>
+      </c>
+      <c r="D105" t="n">
+        <v>31409</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>31409</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>31409</v>
+      </c>
+      <c r="E107" t="n">
         <v>0.1</v>
       </c>
-      <c r="F103" t="s">
-        <v>40</v>
+      <c r="F107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" t="s">
+        <v>54</v>
+      </c>
+      <c r="C108" t="n">
+        <v>14</v>
+      </c>
+      <c r="D108" t="n">
+        <v>31409</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>31409</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" t="n">
+        <v>16</v>
+      </c>
+      <c r="D110" t="n">
+        <v>24191</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F110" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6</v>
+      </c>
+      <c r="D111" t="n">
+        <v>24191</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F111" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>24191</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" t="n">
+        <v>68</v>
+      </c>
+      <c r="D113" t="n">
+        <v>289084</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F113" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C114" t="n">
+        <v>29</v>
+      </c>
+      <c r="D114" t="n">
+        <v>289084</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" t="n">
+        <v>9</v>
+      </c>
+      <c r="D115" t="n">
+        <v>289084</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" t="n">
+        <v>6</v>
+      </c>
+      <c r="D116" t="n">
+        <v>289084</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" t="s">
+        <v>54</v>
+      </c>
+      <c r="C117" t="n">
+        <v>85</v>
+      </c>
+      <c r="D117" t="n">
+        <v>289084</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F117" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" t="s">
+        <v>55</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>289084</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" t="s">
+        <v>56</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>289084</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
